--- a/src/assets/Graduation-Certificate-Sample.xlsx
+++ b/src/assets/Graduation-Certificate-Sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eslam\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Front-End\Angular\graduationCertificate\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18FBD95-DC20-45A8-B19F-300E7979A9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559439DA-3339-4836-AC85-E7D557E80309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="33">
   <si>
     <t>م</t>
   </si>
@@ -48,23 +48,98 @@
     <t>كفرالشيخ</t>
   </si>
   <si>
-    <t>مايو</t>
-  </si>
-  <si>
     <t>احمد رضا عبدالنبي</t>
   </si>
   <si>
-    <t>20105810121288</t>
+    <t>2001-5-4</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>20104570121288</t>
+  </si>
+  <si>
+    <t>20101200121288</t>
+  </si>
+  <si>
+    <t>20105431121288</t>
+  </si>
+  <si>
+    <t>20101010121288</t>
+  </si>
+  <si>
+    <t>20105810421288</t>
+  </si>
+  <si>
+    <t>20103170121288</t>
+  </si>
+  <si>
+    <t>20104137121288</t>
+  </si>
+  <si>
+    <t>20105437511288</t>
+  </si>
+  <si>
+    <t>20105810121246</t>
+  </si>
+  <si>
+    <t>20105810121280</t>
+  </si>
+  <si>
+    <t>20105810121284</t>
+  </si>
+  <si>
+    <t>20105810121285</t>
+  </si>
+  <si>
+    <t>20105810121287</t>
+  </si>
+  <si>
+    <t>20105810121314</t>
+  </si>
+  <si>
+    <t>20105810121761</t>
+  </si>
+  <si>
+    <t>20105810121034</t>
+  </si>
+  <si>
+    <t>20105810121076</t>
+  </si>
+  <si>
+    <t>20105810121305</t>
+  </si>
+  <si>
+    <t>يوسف رضا عبدالنبي</t>
+  </si>
+  <si>
+    <t>حسن رضا عبدالنبي</t>
+  </si>
+  <si>
+    <t>محمد رضا عبدالنبي</t>
+  </si>
+  <si>
+    <t>يونس رضا عبدالنبي</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -90,9 +165,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -374,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -415,22 +489,388 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1">
-        <v>37262</v>
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F20" xr:uid="{E525DF6D-07DF-47D5-8ECB-8B4F228974C6}">
+      <formula1>"June,September"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/assets/Graduation-Certificate-Sample.xlsx
+++ b/src/assets/Graduation-Certificate-Sample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Front-End\Angular\graduationCertificate\src\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Front-End\Angular\graduationCertificate - Copy\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559439DA-3339-4836-AC85-E7D557E80309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76203A05-71C2-41B2-8A2D-B8A02346EDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="34">
   <si>
     <t>م</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>يونس رضا عبدالنبي</t>
+  </si>
+  <si>
+    <t>201058101521761</t>
   </si>
 </sst>
 </file>
@@ -172,7 +175,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -451,7 +465,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -832,7 +846,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>8</v>
@@ -866,6 +880,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C2:C20">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F20" xr:uid="{E525DF6D-07DF-47D5-8ECB-8B4F228974C6}">
       <formula1>"June,September"</formula1>
